--- a/final_Project_Birds/workbook_LogIn.xlsx
+++ b/final_Project_Birds/workbook_LogIn.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alabr\source\repos\final_Project_Birds\final_Project_Birds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD1F75-B422-4A1C-B0ED-1CA43F2C03F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B108F2A-EA28-4F44-B5A9-5F97CD6A1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{73900D06-8F12-4A2C-AF9B-029173F43168}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{73900D06-8F12-4A2C-AF9B-029173F43168}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="birds" sheetId="2" r:id="rId2"/>
     <sheet name="cages" sheetId="3" r:id="rId3"/>
+    <sheet name="chicks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Username</t>
   </si>
@@ -115,7 +116,10 @@
     <t>motherserialnumber</t>
   </si>
   <si>
-    <t>גולדיאן אוסטרלי</t>
+    <t>3243</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
   <si>
     <t>מרכז אוסטרליה</t>
@@ -127,6 +131,42 @@
     <t>tdvvv44</t>
   </si>
   <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>dffd</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>זכר</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>2023-05-06</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
     <t>length</t>
   </si>
   <si>
@@ -154,7 +194,7 @@
     <t>עץ</t>
   </si>
   <si>
-    <t>323</t>
+    <t>21</t>
   </si>
   <si>
     <t>22</t>
@@ -623,15 +663,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818881D0-76AD-4B2C-8CA4-CC43B19BBF99}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="224" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.08203125" customWidth="1"/>
+    <col min="7" max="7" width="11.9140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -661,23 +708,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>3243</v>
+      <c r="A2" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3">
         <v>45048</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="0">
         <v>344</v>
@@ -686,11 +733,102 @@
         <v>3232</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="7">
       <c r="D7" s="4"/>
     </row>
     <row r="8">
       <c r="D8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -703,8 +841,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52CFB2-05D5-4E53-B5D6-53F59C105786}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B752CB1-A518-4C55-9FE5-96614EFD401C}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -714,50 +926,25 @@
         <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/final_Project_Birds/workbook_LogIn.xlsx
+++ b/final_Project_Birds/workbook_LogIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alabr\source\repos\final_Project_Birds\final_Project_Birds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B108F2A-EA28-4F44-B5A9-5F97CD6A1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990C1B6-8107-40C0-8D51-C5C2B2D4CEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{73900D06-8F12-4A2C-AF9B-029173F43168}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="birds" sheetId="2" r:id="rId2"/>
     <sheet name="cages" sheetId="3" r:id="rId3"/>
     <sheet name="chicks" sheetId="4" r:id="rId4"/>
+    <sheet name="color" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Username</t>
   </si>
@@ -116,91 +117,106 @@
     <t>motherserialnumber</t>
   </si>
   <si>
-    <t>3243</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>מרכז אוסטרליה</t>
+    <t>323</t>
+  </si>
+  <si>
+    <t>גולדיאן אמריקאי</t>
+  </si>
+  <si>
+    <t>צפון אמריקה</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>זכר</t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>2023-05-02</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
   </si>
   <si>
     <t>נקבה</t>
   </si>
   <si>
-    <t>tdvvv44</t>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>עץ</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>פלסטיק</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ברזל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialnum </t>
+  </si>
+  <si>
+    <t>Head Color</t>
+  </si>
+  <si>
+    <t>Breast Color</t>
+  </si>
+  <si>
+    <t>Body Color</t>
   </si>
   <si>
     <t>dsd</t>
   </si>
   <si>
-    <t>dffd</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
-  </si>
-  <si>
-    <t>זכר</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>2023-05-06</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>3232</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>עץ</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>פלסטיק</t>
+    <t>שחור</t>
+  </si>
+  <si>
+    <t>ורוד</t>
+  </si>
+  <si>
+    <t>צהוב</t>
   </si>
 </sst>
 </file>
@@ -245,14 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,18 +677,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818881D0-76AD-4B2C-8CA4-CC43B19BBF99}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.58203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="6.5" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="8.08203125" customWidth="1"/>
     <col min="7" max="7" width="11.9140625" customWidth="1"/>
@@ -717,117 +731,60 @@
       <c r="C2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3">
-        <v>45048</v>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0">
-        <v>344</v>
-      </c>
-      <c r="H2" s="0">
-        <v>3232</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>39</v>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +796,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52CFB2-05D5-4E53-B5D6-53F59C105786}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -859,50 +816,67 @@
         <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>53</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -951,4 +925,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0099E2B-16A5-4EF6-B251-F37B80BE9BB5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/final_Project_Birds/workbook_LogIn.xlsx
+++ b/final_Project_Birds/workbook_LogIn.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Username</t>
   </si>
@@ -93,6 +93,15 @@
     <t>452768378</t>
   </si>
   <si>
+    <t>rasheed</t>
+  </si>
+  <si>
+    <t>Rashid@231</t>
+  </si>
+  <si>
+    <t>315054817</t>
+  </si>
+  <si>
     <t>Serialnum</t>
   </si>
   <si>
@@ -153,6 +162,39 @@
     <t>נקבה</t>
   </si>
   <si>
+    <t>4343</t>
+  </si>
+  <si>
+    <t>דרום אמריקה</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>גולדיאן אירופאי</t>
+  </si>
+  <si>
+    <t>מזרח אירופה</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>length</t>
   </si>
   <si>
@@ -165,9 +207,6 @@
     <t>material</t>
   </si>
   <si>
-    <t>434</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
@@ -183,18 +222,15 @@
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>פלסטיק</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>ברזל</t>
   </si>
   <si>
+    <t>433</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serialnum </t>
   </si>
   <si>
@@ -217,6 +253,12 @@
   </si>
   <si>
     <t>צהוב</t>
+  </si>
+  <si>
+    <t>צהוב-ירוק</t>
+  </si>
+  <si>
+    <t>צהוב-ירוק-כחול</t>
   </si>
 </sst>
 </file>
@@ -581,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459C2F15-6A30-4E9A-8B35-D8D8B02F3C9A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -669,6 +711,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -677,7 +730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818881D0-76AD-4B2C-8CA4-CC43B19BBF99}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="224" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -697,94 +750,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>30</v>
+      <c r="E6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +901,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52CFB2-05D5-4E53-B5D6-53F59C105786}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -813,70 +918,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -897,28 +1019,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0099E2B-16A5-4EF6-B251-F37B80BE9BB5}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -939,30 +1061,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/final_Project_Birds/workbook_LogIn.xlsx
+++ b/final_Project_Birds/workbook_LogIn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alabr\source\repos\final_Project_Birds\final_Project_Birds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990C1B6-8107-40C0-8D51-C5C2B2D4CEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEB5D34-5C85-4155-A91E-A9893E50F526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{73900D06-8F12-4A2C-AF9B-029173F43168}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{73900D06-8F12-4A2C-AF9B-029173F43168}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="chicks" sheetId="4" r:id="rId4"/>
     <sheet name="color" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Username</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>material</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
   <si>
     <t>33</t>
@@ -265,8 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,100 +627,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" bestFit="1" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>322566047</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>32256609</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>322566027</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>322566029</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -732,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818881D0-76AD-4B2C-8CA4-CC43B19BBF99}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="224" workbookViewId="0">
+    <sheetView zoomScale="104" zoomScaleNormal="224" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -741,14 +736,14 @@
     <col min="1" max="1" width="6.58203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="8.08203125" customWidth="1"/>
     <col min="7" max="7" width="11.9140625" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -774,128 +769,127 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -903,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52CFB2-05D5-4E53-B5D6-53F59C105786}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -916,94 +910,93 @@
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1017,35 +1010,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1059,64 +1051,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="D4" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>